--- a/data/trans_camb/P2C_R2-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P2C_R2-Estudios-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>6.265866120244018</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>-4.439272508506336</v>
+        <v>-4.439272508506334</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>16.90812787027515</v>
@@ -664,7 +664,7 @@
         <v>6.915086101080897</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>-1.63991349535646</v>
+        <v>-1.639913495356462</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>13.53159359210856</v>
+        <v>13.95578083049906</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>2.395210479877775</v>
+        <v>1.598668494126753</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-8.174869493440292</v>
+        <v>-7.937634518658046</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>13.05661258217068</v>
+        <v>12.92357551175837</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>2.807906804936176</v>
+        <v>3.216481880595737</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-3.259437767349702</v>
+        <v>-3.364350239285264</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>14.7779011528631</v>
+        <v>14.74602067611255</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>3.795300366310576</v>
+        <v>4.272252989804159</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-4.332067551394818</v>
+        <v>-4.411566285342611</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>21.67519073999364</v>
+        <v>22.27559477622175</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>10.13361930920157</v>
+        <v>10.06252134085372</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-0.4322526609894262</v>
+        <v>-0.2211894537221457</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>20.68425860566954</v>
+        <v>20.40064318496916</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>10.95721244390752</v>
+        <v>11.2259837128204</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>3.330121989717473</v>
+        <v>3.353744857213634</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>20.14347367091496</v>
+        <v>20.36947785910261</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>9.669699912092076</v>
+        <v>9.726694045238785</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.8667741940859534</v>
+        <v>0.6909358125514065</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>0.289721249632618</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>-0.205263175743387</v>
+        <v>-0.2052631757433869</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0.6383648654506759</v>
@@ -769,7 +769,7 @@
         <v>0.2839834044725384</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>-0.067346698312114</v>
+        <v>-0.06734669831211411</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.5793686026985101</v>
+        <v>0.5976901118968182</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.1073075492569947</v>
+        <v>0.06700693147663168</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.3529993252455512</v>
+        <v>-0.3470668073267111</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.4643873654156483</v>
+        <v>0.4602437835923963</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.1008728508191975</v>
+        <v>0.1164159776583127</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.1173948286417541</v>
+        <v>-0.1190656287893627</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5758346734405462</v>
+        <v>0.5724697207660565</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.1471774611184747</v>
+        <v>0.159406111824812</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.1687927018266555</v>
+        <v>-0.1702749124084401</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>1.093969509412347</v>
+        <v>1.120980350898289</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.5124321004729644</v>
+        <v>0.507361808325356</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>-0.01845735525633648</v>
+        <v>-0.01077981903790332</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.8381938591711809</v>
+        <v>0.8270349273440264</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.434965072816829</v>
+        <v>0.4572828968366254</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1328225406022461</v>
+        <v>0.1331076714950798</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.8653163485987803</v>
+        <v>0.8772489963804863</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.4225891928964598</v>
+        <v>0.4196477919032218</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.03725427751794852</v>
+        <v>0.02956148513838634</v>
       </c>
     </row>
     <row r="10">
@@ -869,7 +869,7 @@
         <v>0.4684126570091762</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>-23.35661138816667</v>
+        <v>-23.35661138816668</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>16.14676630077214</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>11.77203849319847</v>
+        <v>11.34027203016488</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-3.699747337914528</v>
+        <v>-3.729603842469317</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-22.65947535824047</v>
+        <v>-22.58815522194372</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>14.0887312870409</v>
+        <v>14.30860412256868</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-2.91320357275594</v>
+        <v>-2.893099587940615</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-26.2650338078264</v>
+        <v>-25.97429226829654</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>13.82931497423234</v>
+        <v>13.89023390260158</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-2.22123688197441</v>
+        <v>-2.386667655264489</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-23.57624211629732</v>
+        <v>-23.36470514234288</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>18.22265714220614</v>
+        <v>17.89232566638126</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.381683010464066</v>
+        <v>2.518276118519611</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-17.13298033698836</v>
+        <v>-16.89710400231544</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>20.82795155777286</v>
+        <v>20.95014649085033</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>3.633693089349257</v>
+        <v>3.801421218591511</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>-20.15945102129468</v>
+        <v>-20.17733330777796</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>18.2832841112583</v>
+        <v>18.61238943670558</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>2.111182524942809</v>
+        <v>2.194753386958122</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>-19.48448461173665</v>
+        <v>-19.41799266152037</v>
       </c>
     </row>
     <row r="13">
@@ -974,7 +974,7 @@
         <v>0.01161561794274599</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>-0.5791933037300894</v>
+        <v>-0.5791933037300896</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.4394756523689432</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.3341189420340728</v>
+        <v>0.3238151164964183</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.1048322119179521</v>
+        <v>-0.1098476189853743</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.6482681877590377</v>
+        <v>-0.6476938732715041</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.334016251661283</v>
+        <v>0.3377591171783311</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.07023157427517407</v>
+        <v>-0.06833548185827065</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.6240507365722675</v>
+        <v>-0.622833986742183</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3650259855676423</v>
+        <v>0.364881209516713</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.05835775873647619</v>
+        <v>-0.06185322333791211</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.6221020062561958</v>
+        <v>-0.6172757230246091</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.5809785786963803</v>
+        <v>0.5721483504748761</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.07535374890578977</v>
+        <v>0.07982046150624826</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.5376457620277324</v>
+        <v>-0.5333300558174102</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.538975665470588</v>
+        <v>0.5404547259858751</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.09390390487905122</v>
+        <v>0.09708092850183472</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.5274495275414127</v>
+        <v>-0.5315713344969141</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.5136726637985445</v>
+        <v>0.5217517592017648</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.05934863311865841</v>
+        <v>0.06157590194375559</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>-0.5478051560057453</v>
+        <v>-0.5457170484391696</v>
       </c>
     </row>
     <row r="16">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>3.892599275520346</v>
+        <v>4.231424966705434</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-5.661548795979927</v>
+        <v>-5.390183011874564</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-24.32944396647317</v>
+        <v>-24.19860993507908</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>7.503792774338239</v>
+        <v>6.963761948341658</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-2.412873664986491</v>
+        <v>-3.009067777141049</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-30.382388332108</v>
+        <v>-30.72452136728596</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>7.926771017450718</v>
+        <v>7.333349943038092</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-1.807621112263474</v>
+        <v>-2.078561352109116</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-25.72441319207223</v>
+        <v>-25.87862430384024</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>15.92927308839036</v>
+        <v>16.51789595249038</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>5.939503342133514</v>
+        <v>6.660177196921276</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-14.64744515883257</v>
+        <v>-14.70635707729242</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>20.35304257786232</v>
+        <v>20.55909963309879</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>9.752960425504458</v>
+        <v>9.52041421631311</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>-20.90622265992227</v>
+        <v>-20.92320100527417</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>16.93765146495236</v>
+        <v>16.99616595632533</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>6.325956070242195</v>
+        <v>6.504985368889485</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>-18.87462862198464</v>
+        <v>-18.77330701276508</v>
       </c>
     </row>
     <row r="19">
@@ -1197,7 +1197,7 @@
         <v>0.06640039885053305</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>-0.6651317073638929</v>
+        <v>-0.665131707363893</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.1211537999840569</v>
+        <v>0.1280238140586913</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.1682560170833768</v>
+        <v>-0.1621442835913957</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.7296615599872929</v>
+        <v>-0.7346894143224703</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.1809975129144052</v>
+        <v>0.1734895560963696</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.05999031144347555</v>
+        <v>-0.07115086187681392</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.7493610117818573</v>
+        <v>-0.7504807420886878</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2205412504352127</v>
+        <v>0.2015277157676891</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.05166104068590759</v>
+        <v>-0.05671354062053285</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.7194024487414173</v>
+        <v>-0.7137481682722154</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.5736716128297531</v>
+        <v>0.6180637919620383</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.2133039663373707</v>
+        <v>0.2538655461111299</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>-0.5139331585772047</v>
+        <v>-0.5308607165308096</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.5943677755747112</v>
+        <v>0.5917900492924548</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.2890206715430586</v>
+        <v>0.2821219800257264</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>-0.6146762350190029</v>
+        <v>-0.6198471637878641</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.5415867094396623</v>
+        <v>0.5419165024233106</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.2033538349910955</v>
+        <v>0.2093070922012845</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>-0.6023412925133819</v>
+        <v>-0.5989348950260172</v>
       </c>
     </row>
     <row r="22">
@@ -1306,7 +1306,7 @@
         <v>3.261411388545554</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>-16.00826480140694</v>
+        <v>-16.00826480140693</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>13.31497007541078</v>
+        <v>13.27048177340208</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.004989257941327588</v>
+        <v>-0.1033654427343584</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-17.59879785382261</v>
+        <v>-17.68388837668065</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>14.79188735273981</v>
+        <v>14.77097458346993</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>1.923601010129264</v>
+        <v>2.018104186256782</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-18.38806754675663</v>
+        <v>-18.43889040803531</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>14.68651181245242</v>
+        <v>14.66037779026638</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>1.629550306763602</v>
+        <v>1.441506810939516</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-17.45626140743353</v>
+        <v>-17.50298367240035</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>17.86680368519815</v>
+        <v>18.10436543829791</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>4.354843686604117</v>
+        <v>4.519120290592913</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-13.42897923854423</v>
+        <v>-13.48711567004876</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>19.441659826596</v>
+        <v>19.5136842925033</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>6.465906066276804</v>
+        <v>6.735324804212453</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>-14.29453108238129</v>
+        <v>-14.51436818041008</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>18.08742950113801</v>
+        <v>18.01319870116609</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>5.047597637712306</v>
+        <v>4.95598822040812</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>-14.47450986509687</v>
+        <v>-14.54675537979634</v>
       </c>
     </row>
     <row r="25">
@@ -1411,7 +1411,7 @@
         <v>0.102278303621822</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>-0.5020213560200354</v>
+        <v>-0.5020213560200352</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.4411844205777286</v>
+        <v>0.4414189565671792</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.0007606778783850067</v>
+        <v>-0.00340815665936282</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.5817778835246944</v>
+        <v>-0.5864108705636304</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.414480244546587</v>
+        <v>0.4140189119521892</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.05507219078838374</v>
+        <v>0.05656683120948194</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.5149981852648127</v>
+        <v>-0.5162337977785677</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4501989329187083</v>
+        <v>0.4478982489147155</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.04999103238231784</v>
+        <v>0.04375825113703825</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.5338607742291372</v>
+        <v>-0.5331080216816197</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.6438806517691487</v>
+        <v>0.6498828791259111</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.1547811579083841</v>
+        <v>0.1618764515814816</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.4812313797759982</v>
+        <v>-0.4818281912828753</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.5867291661808018</v>
+        <v>0.5843527045558737</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.1968261602800321</v>
+        <v>0.2014876989529386</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.432454440553629</v>
+        <v>-0.4342130087108982</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.5870505413128176</v>
+        <v>0.581341413539889</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.1635127041283192</v>
+        <v>0.1604520268231245</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>-0.4677680390578182</v>
+        <v>-0.4680322840912444</v>
       </c>
     </row>
     <row r="28">
